--- a/Uploads/excel/example_storage2.xlsx
+++ b/Uploads/excel/example_storage2.xlsx
@@ -48,12 +48,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>金料名称</t>
   </si>
   <si>
     <t>金料编号</t>
+  </si>
+  <si>
+    <t>外部金料编号</t>
   </si>
   <si>
     <t>金价</t>
@@ -79,23 +82,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -108,6 +104,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -115,8 +125,61 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,6 +200,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -145,107 +231,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,49 +269,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,13 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,31 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,42 +437,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -434,19 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,17 +463,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,21 +483,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,6 +504,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -528,32 +540,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -714,10 +717,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1066,30 +1069,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.00833333333333" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9.00833333333333" customWidth="1"/>
-    <col min="3" max="3" width="9.00833333333333" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.00833333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="9.00833333333333" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.00833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1101,85 +1105,107 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
